--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -208,25 +208,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,23 +533,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="BB1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="BB1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -651,20 +651,20 @@
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="13" t="str">
         <f>A9</f>
         <v>Relays</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11" t="str">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10" t="str">
         <f>A10</f>
         <v>auto_mode</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -705,14 +705,14 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="BB4" s="1" t="s">
         <v>4</v>
       </c>
